--- a/xlsx/馬爾地夫_intext.xlsx
+++ b/xlsx/馬爾地夫_intext.xlsx
@@ -29,7 +29,7 @@
     <t>馬爾代夫國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_馬爾地夫</t>
+    <t>体育运动_体育运动_南非_馬爾地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%A3%E5%A4%AB%E5%9C%8B%E5%BE%BD</t>
